--- a/1129/middle-D.xlsx
+++ b/1129/middle-D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takedakiyoshi/lab/kline/KLINE/1129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E7F07-8F1B-624D-A493-037ABCCE7E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07680FBC-9D74-E04C-A761-C517C8D79FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32680" yWindow="1460" windowWidth="25480" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
+    <workbookView xWindow="220" yWindow="1140" windowWidth="25480" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,19 +90,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,19 +149,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -356,114 +356,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2214880" y="2387600"/>
-          <a:ext cx="1188720" cy="518160"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2255520" y="2650067"/>
-          <a:ext cx="1188722" cy="336973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160865</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -746,60 +638,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>748313</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2241833" y="1910080"/>
-          <a:ext cx="176247" cy="169344"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>744901</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -908,82 +746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5317</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672365</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1819</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>253181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>290125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>254461</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C629F14-B62F-2449-A198-34E9760706A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281549" y="2829993"/>
-          <a:ext cx="284808" cy="258961"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>850165</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>251900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162686</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
+      <xdr:rowOff>1546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -998,8 +770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485165" y="2267107"/>
-          <a:ext cx="162686" cy="247079"/>
+          <a:off x="2162498" y="2292367"/>
+          <a:ext cx="167654" cy="249179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,14 +815,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>639634</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4633</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>380072</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1280</xdr:rowOff>
     </xdr:to>
@@ -1067,14 +839,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="639634" y="2254236"/>
-          <a:ext cx="380073" cy="249964"/>
+          <a:off x="639633" y="2287608"/>
+          <a:ext cx="249367" cy="253672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:srgbClr val="00B0F0"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1176,13 +948,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8312</xdr:colOff>
+      <xdr:colOff>677179</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171279</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1946</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>10542</xdr:rowOff>
     </xdr:to>
@@ -1199,8 +971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1500794" y="1761314"/>
-          <a:ext cx="162967" cy="251564"/>
+          <a:off x="2167312" y="1787270"/>
+          <a:ext cx="162967" cy="255272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,23 +1079,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>159188</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>252860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4382</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909B28B1-402F-124D-A5A4-047A98C6FC0C}"/>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B554C-2E10-2740-8F66-A81928267680}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,8 +1103,263 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276232" y="3607536"/>
-          <a:ext cx="159188" cy="252860"/>
+          <a:off x="2006600" y="2803203"/>
+          <a:ext cx="322083" cy="249179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3981</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234403</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>252860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD34E053-CCC6-B141-A3CE-BC4D0E367F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640972" y="2802759"/>
+          <a:ext cx="230422" cy="252860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="473317" y="2926080"/>
+          <a:ext cx="339483" cy="5951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2957</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D13D59-0E9F-4F43-BCFF-B7A2B1CF06B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3976130" y="2804034"/>
+          <a:ext cx="171645" cy="249179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>247079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67177B73-D758-BB4D-B15F-6A63EDB5FEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1380067" y="2287608"/>
+          <a:ext cx="111783" cy="245471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,23 +1403,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>607391</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4382</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>842702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>253937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B554C-2E10-2740-8F66-A81928267680}"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645716D6-5F83-EF46-822B-AFCE1E763037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,325 +1427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2089058" y="2843696"/>
-          <a:ext cx="230422" cy="252860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3981</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234403</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>252860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD34E053-CCC6-B141-A3CE-BC4D0E367F5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="640972" y="2802759"/>
-          <a:ext cx="230422" cy="252860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>473317</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138031</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF555AA1-2AF7-7041-9E4F-2272170E6B77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="473317" y="2926080"/>
-          <a:ext cx="339483" cy="5951"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>667445</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>18541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>839090</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D13D59-0E9F-4F43-BCFF-B7A2B1CF06B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3949051" y="2521461"/>
-          <a:ext cx="171645" cy="245471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>176131</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444964</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C1206A-695A-864B-A24D-225EE9B6CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1668613" y="2252628"/>
-          <a:ext cx="268833" cy="247079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723064</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>35585</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>247079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="正方形/長方形 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67177B73-D758-BB4D-B15F-6A63EDB5FEF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1362699" y="2254236"/>
+          <a:off x="1312334" y="2040466"/>
           <a:ext cx="165368" cy="245471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1763,23 +1472,131 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165368</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>245471</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7948B-8D6A-5B4D-8301-90F3231E917B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2255520" y="2650067"/>
+          <a:ext cx="1188722" cy="336973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C340126D-CA2B-6946-8B0B-0C62B9A213B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2214880" y="2387600"/>
+          <a:ext cx="1188720" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>851168</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>253937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645716D6-5F83-EF46-822B-AFCE1E763037}"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7F0223-ADB4-AF44-8A92-3F93AF2E48CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1604,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="639635" y="2002336"/>
+          <a:off x="3970867" y="2548466"/>
           <a:ext cx="165368" cy="245471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1828,6 +1645,126 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2645</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>249179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84857F76-DBDD-914D-9FBF-5B7DFC93AC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="1778000"/>
+          <a:ext cx="163512" cy="249179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5524CC-DDCD-C643-AB02-1478E0F640E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2241833" y="1910080"/>
+          <a:ext cx="176247" cy="169344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2132,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D6086A-5A36-2647-9BEA-DE6229B37F19}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2155,85 +2092,85 @@
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="8"/>
       <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="G9" s="4"/>
       <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
